--- a/Finflux Automation Excels/Client/4618-NonWorkSatandSun-REPAYDUE-MOVEtoNEXTWORKINGDAY-DISBDAILYLOANon02JAN2013.xlsx
+++ b/Finflux Automation Excels/Client/4618-NonWorkSatandSun-REPAYDUE-MOVEtoNEXTWORKINGDAY-DISBDAILYLOANon02JAN2013.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -156,14 +156,38 @@
     <t>disburseloan</t>
   </si>
   <si>
-    <t>4615-WorkingNoNWorking-Loanproduct</t>
+    <t>Repaidevery</t>
+  </si>
+  <si>
+    <t>Repaideverytype</t>
+  </si>
+  <si>
+    <t>Loantermtype</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>loantrancheclick</t>
+  </si>
+  <si>
+    <t>plus 0</t>
+  </si>
+  <si>
+    <t>expecteddisbursementon</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>Chaitanya-TestLoan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +212,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -244,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -276,6 +305,13 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +676,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="3">
-        <v>41275</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,62 +692,118 @@
         <v>31</v>
       </c>
       <c r="B4" s="3">
-        <v>41276</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3">
-        <v>41275</v>
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
+      <c r="A8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="15">
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3">
-        <v>41276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B17" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -844,10 +936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,13 +956,13 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -905,22 +997,23 @@
       <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6">
-        <v>41276</v>
+        <v>42005</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -930,21 +1023,22 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L2" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -952,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>41277</v>
+        <v>42006</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -977,37 +1071,38 @@
       <c r="L3" s="5">
         <v>0</v>
       </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5">
         <v>0</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>41278</v>
+        <v>42009</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <v>832.11</v>
+        <v>825.26</v>
       </c>
       <c r="G4" s="8">
-        <v>8336.06</v>
+        <v>8342.91</v>
       </c>
       <c r="H4" s="5">
-        <v>3.01</v>
+        <v>9.86</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -1021,37 +1116,38 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5">
         <v>0</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>41281</v>
+        <v>42009</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>826.9</v>
+        <v>835.12</v>
       </c>
       <c r="G5" s="8">
-        <v>7509.16</v>
+        <v>7507.79</v>
       </c>
       <c r="H5" s="5">
-        <v>8.2200000000000006</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -1065,18 +1161,19 @@
       <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5">
         <v>0</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1084,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>41281</v>
+        <v>42009</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1092,7 +1189,7 @@
         <v>835.12</v>
       </c>
       <c r="G6" s="8">
-        <v>6674.04</v>
+        <v>6672.67</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -1109,37 +1206,38 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>41281</v>
+        <v>42010</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>835.12</v>
+        <v>831.83</v>
       </c>
       <c r="G7" s="8">
-        <v>5838.92</v>
+        <v>5840.84</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1153,18 +1251,19 @@
       <c r="L7" s="5">
         <v>0</v>
       </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1172,18 +1271,18 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>41282</v>
+        <v>42011</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
-        <v>833.2</v>
+        <v>831.83</v>
       </c>
       <c r="G8" s="8">
-        <v>5005.72</v>
+        <v>5009.01</v>
       </c>
       <c r="H8" s="5">
-        <v>1.92</v>
+        <v>3.29</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -1197,18 +1296,19 @@
       <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1216,18 +1316,18 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>41283</v>
+        <v>42012</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
-        <v>833.47</v>
+        <v>831.83</v>
       </c>
       <c r="G9" s="8">
-        <v>4172.25</v>
+        <v>4177.18</v>
       </c>
       <c r="H9" s="5">
-        <v>1.65</v>
+        <v>3.29</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1241,18 +1341,19 @@
       <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
+      <c r="M9" s="5"/>
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1260,18 +1361,18 @@
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>41284</v>
+        <v>42013</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
-        <v>833.75</v>
+        <v>831.83</v>
       </c>
       <c r="G10" s="8">
-        <v>3338.5</v>
+        <v>3345.35</v>
       </c>
       <c r="H10" s="5">
-        <v>1.37</v>
+        <v>3.29</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1285,37 +1386,38 @@
       <c r="L10" s="5">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6">
-        <v>41285</v>
+        <v>42016</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
-        <v>834.02</v>
+        <v>825.26</v>
       </c>
       <c r="G11" s="8">
-        <v>2504.48</v>
+        <v>2520.09</v>
       </c>
       <c r="H11" s="5">
-        <v>1.1000000000000001</v>
+        <v>9.86</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>
@@ -1329,37 +1431,38 @@
       <c r="L11" s="5">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5">
         <v>0</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" s="6">
-        <v>41288</v>
+        <v>42016</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
-        <v>832.65</v>
+        <v>835.12</v>
       </c>
       <c r="G12" s="8">
-        <v>1671.83</v>
+        <v>1684.97</v>
       </c>
       <c r="H12" s="5">
-        <v>2.4700000000000002</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1373,18 +1476,19 @@
       <c r="L12" s="5">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5">
         <v>0</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1392,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="6">
-        <v>41288</v>
+        <v>42016</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1400,7 +1504,7 @@
         <v>835.12</v>
       </c>
       <c r="G13" s="5">
-        <v>836.71</v>
+        <v>849.85</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
@@ -1417,37 +1521,38 @@
       <c r="L13" s="5">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="6">
-        <v>41288</v>
+        <v>42017</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
-        <v>836.71</v>
+        <v>849.85</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="I14" s="5">
         <v>0</v>
@@ -1456,20 +1561,66 @@
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <v>836.71</v>
+        <v>853.14</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
       </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5">
         <v>0</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5">
-        <v>836.71</v>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5">
+        <v>853.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>78</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42095</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>256.62</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>256.62</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5">
+        <v>256.62</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
